--- a/tests/test-files/test_data_plot/input/generate_curvefit_plots_yijk_rep_input.xlsx
+++ b/tests/test-files/test_data_plot/input/generate_curvefit_plots_yijk_rep_input.xlsx
@@ -445,55 +445,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01621436010619554</v>
+        <v>-0.0449149826048274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02297416933257945</v>
+        <v>-0.01452812761563707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02213607596353713</v>
+        <v>-0.03150280744763258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04161770199972484</v>
+        <v>-0.03537589815554228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03702554668313603</v>
+        <v>-0.04355666264010372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0400368455667079</v>
+        <v>-0.04077934352806592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04575447460282163</v>
+        <v>-0.02369296600419956</v>
       </c>
     </row>
   </sheetData>
